--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P16_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P16_trail1 Features.xlsx
@@ -4636,7 +4636,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.819162510773251</v>
+        <v>1.975287186161504</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.087176721587556</v>
@@ -4725,7 +4725,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.806414883478504</v>
+        <v>1.958297737254841</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.496299398740746</v>
@@ -4814,7 +4814,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.803192205155328</v>
+        <v>1.955772646140536</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.745163858855439</v>
@@ -4903,7 +4903,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.798849887614236</v>
+        <v>1.947913530801529</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.142054546773358</v>
@@ -4992,7 +4992,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.793039621884112</v>
+        <v>1.942225193977853</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.77095369846593</v>
@@ -5081,7 +5081,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.784116592465194</v>
+        <v>1.92844785432151</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.574842266463448</v>
@@ -5170,7 +5170,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.786710159497038</v>
+        <v>1.933283048452924</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.689401280597419</v>
@@ -5259,7 +5259,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.78378336297803</v>
+        <v>1.92990253353395</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.640244041379933</v>
@@ -5348,7 +5348,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.780266165022033</v>
+        <v>1.924877132132299</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.826560937570151</v>
@@ -5437,7 +5437,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.776710664188847</v>
+        <v>1.920683113312034</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.48738841879815</v>
@@ -5526,7 +5526,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.765219551109364</v>
+        <v>1.903846783885544</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.922910000808489</v>
@@ -5615,7 +5615,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.764974533011531</v>
+        <v>1.903522100663979</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.219500361733394</v>
@@ -5704,7 +5704,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.766784710403965</v>
+        <v>1.906417572264286</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.865070503480824</v>
@@ -5793,7 +5793,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.771560675159028</v>
+        <v>1.911799590311109</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.659348404923612</v>
@@ -5882,7 +5882,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.777133188630026</v>
+        <v>1.917927908654065</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.100636584695281</v>
@@ -5971,7 +5971,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.773864185444495</v>
+        <v>1.914520909580998</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.187407011549729</v>
@@ -6060,7 +6060,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.777183327752956</v>
+        <v>1.919150168607465</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.672551013058163</v>
@@ -6149,7 +6149,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.780729297550877</v>
+        <v>1.924502858109676</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.793708494736719</v>
@@ -6238,7 +6238,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.789691122364682</v>
+        <v>1.937622445765506</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.622772144278124</v>
@@ -6327,7 +6327,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.788000324954599</v>
+        <v>1.936677066911855</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.826831315899847</v>
@@ -6416,7 +6416,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.788816108115521</v>
+        <v>1.935946239016554</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.068588809338205</v>
@@ -6505,7 +6505,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.780492576204025</v>
+        <v>1.922800904569385</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.864152806746029</v>
@@ -6594,7 +6594,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.783092406820731</v>
+        <v>1.926653694842781</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.216371342967681</v>
@@ -6683,7 +6683,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.780303661954323</v>
+        <v>1.923818469265859</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.456027926013094</v>
@@ -6772,7 +6772,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.78963412598819</v>
+        <v>1.937539694951715</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.033279575338112</v>
@@ -6861,7 +6861,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.792613631944302</v>
+        <v>1.942637466892926</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.349321863734859</v>
@@ -6950,7 +6950,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.794423527952967</v>
+        <v>1.946003567031788</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.318702334216505</v>
@@ -7039,7 +7039,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.78879894189314</v>
+        <v>1.936712263095653</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.743522171331481</v>
@@ -7128,7 +7128,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.791977031438422</v>
+        <v>1.943064628888551</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.423398661475127</v>
@@ -7217,7 +7217,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.794067172439067</v>
+        <v>1.947911766377406</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.518971234477608</v>
@@ -7306,7 +7306,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.803384706876815</v>
+        <v>1.960873597722679</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.374094471363363</v>
@@ -7395,7 +7395,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.809802797526209</v>
+        <v>1.970380667110105</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.762181949999958</v>
@@ -7484,7 +7484,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.814264266813957</v>
+        <v>1.977298719888697</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.771257053458521</v>
@@ -7573,7 +7573,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.818852107552154</v>
+        <v>1.984029248403872</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.911231549098122</v>
@@ -7662,7 +7662,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.820908483636353</v>
+        <v>1.989544926963803</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.792145627335538</v>
@@ -7751,7 +7751,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.82980258625732</v>
+        <v>2.00457790722665</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.439510638061859</v>
@@ -7840,7 +7840,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.842346241930164</v>
+        <v>2.02134666295915</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.060673233869464</v>
@@ -7929,7 +7929,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.839001196230977</v>
+        <v>2.01870034832715</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.97400270851821</v>
@@ -8018,7 +8018,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.842823330247274</v>
+        <v>2.024059801995593</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.555623786805745</v>
@@ -8107,7 +8107,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.85112623694826</v>
+        <v>2.035975343772411</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.529695140410877</v>
@@ -8196,7 +8196,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.857148184276501</v>
+        <v>2.046377566381996</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.319952010734168</v>
@@ -8285,7 +8285,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.866796992144021</v>
+        <v>2.057615857882291</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.240891917793088</v>
@@ -8571,7 +8571,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.813885721633544</v>
+        <v>1.947796730625875</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.917305076085801</v>
@@ -8660,7 +8660,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.798924485048029</v>
+        <v>1.930560594325214</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.564691353769059</v>
@@ -8749,7 +8749,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.797007386025215</v>
+        <v>1.927245872180712</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.584091927128897</v>
@@ -8838,7 +8838,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.790307243656042</v>
+        <v>1.919628470657528</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.552295161349877</v>
@@ -8927,7 +8927,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.781511563016851</v>
+        <v>1.91197012743583</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.632532725815358</v>
@@ -9016,7 +9016,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.7747517763044</v>
+        <v>1.900136455758744</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.616302847442137</v>
@@ -9105,7 +9105,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.764327044228978</v>
+        <v>1.884458108939818</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.632410151570699</v>
@@ -9194,7 +9194,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.770023542190572</v>
+        <v>1.892197541364298</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.90077352155043</v>
@@ -9283,7 +9283,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.768883882599314</v>
+        <v>1.892716437456156</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.622509168690851</v>
@@ -9372,7 +9372,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.759560582355691</v>
+        <v>1.882433363545236</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.642466869182339</v>
@@ -9461,7 +9461,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.750930715411194</v>
+        <v>1.87123008529342</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.717228689847651</v>
@@ -9550,7 +9550,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.736260576636618</v>
+        <v>1.852467441578605</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.917198775969843</v>
@@ -9639,7 +9639,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.751375027066624</v>
+        <v>1.873197647244875</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.816442870932474</v>
@@ -9728,7 +9728,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.754940397478521</v>
+        <v>1.87798115330496</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.574374769500161</v>
@@ -9817,7 +9817,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.759834458153078</v>
+        <v>1.885214406974704</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.912212966386793</v>
@@ -9906,7 +9906,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.752851001658697</v>
+        <v>1.87707901955166</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.794404259438918</v>
@@ -9995,7 +9995,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.751644171664952</v>
+        <v>1.877913052618616</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.299674023896261</v>
@@ -10084,7 +10084,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.76558723346629</v>
+        <v>1.895980936154203</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.6353364236229</v>
@@ -10173,7 +10173,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.770850296372918</v>
+        <v>1.904145478116244</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.871153537662374</v>
@@ -10262,7 +10262,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.760075005629022</v>
+        <v>1.892321842870031</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.629857895355348</v>
@@ -10351,7 +10351,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.762993505600803</v>
+        <v>1.894449843133135</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.787495979435912</v>
@@ -10440,7 +10440,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.767756780788099</v>
+        <v>1.899669553072757</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.759785240206658</v>
@@ -10529,7 +10529,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.773025595476799</v>
+        <v>1.906904122656964</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.481203494895888</v>
@@ -10618,7 +10618,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.774696516069167</v>
+        <v>1.911625755853989</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.342801369023828</v>
@@ -10707,7 +10707,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.782202900408983</v>
+        <v>1.92277946636111</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.653172931531858</v>
@@ -10796,7 +10796,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.785984750913283</v>
+        <v>1.928084571001726</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.243235604959525</v>
@@ -10885,7 +10885,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.787638966155223</v>
+        <v>1.932918397580411</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.8455004548116</v>
@@ -10974,7 +10974,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.78977494626548</v>
+        <v>1.933983323061877</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.529095985594156</v>
@@ -11063,7 +11063,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.790428109337301</v>
+        <v>1.934786517383233</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.528537525525022</v>
@@ -11152,7 +11152,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.783233946174932</v>
+        <v>1.923034240553265</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.410717003523032</v>
@@ -11241,7 +11241,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.800540321833344</v>
+        <v>1.948352881419665</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.365777327838395</v>
@@ -11330,7 +11330,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.803324977373169</v>
+        <v>1.950832795241962</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.57367826948231</v>
@@ -11419,7 +11419,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.806726637938134</v>
+        <v>1.953841269666963</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.712464560507995</v>
@@ -11508,7 +11508,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.810745895478383</v>
+        <v>1.958242093052102</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.601405479202784</v>
@@ -11597,7 +11597,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.817325980850723</v>
+        <v>1.963246323523327</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.826080426681612</v>
@@ -11686,7 +11686,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.816872785711899</v>
+        <v>1.967765306014875</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.514159782104258</v>
@@ -11775,7 +11775,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.825424643200198</v>
+        <v>1.975784649022626</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.575271834456482</v>
@@ -11864,7 +11864,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.825707418328051</v>
+        <v>1.973186093722102</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.348884137592509</v>
@@ -11953,7 +11953,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.827190308310362</v>
+        <v>1.971006019513938</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.629586467995227</v>
@@ -12042,7 +12042,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.821902755829784</v>
+        <v>1.959479656740533</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.691791293556183</v>
@@ -12131,7 +12131,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.826556218003884</v>
+        <v>1.957436005939993</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.471952941627652</v>
@@ -12220,7 +12220,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.846048432917794</v>
+        <v>1.976590050336732</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.54275982204479</v>
@@ -12506,7 +12506,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.16306925825429</v>
+        <v>2.235436668279294</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>11.74085926275291</v>
@@ -12595,7 +12595,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.161760074268073</v>
+        <v>2.235713630513172</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>10.77266407124328</v>
@@ -12684,7 +12684,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.160628412623992</v>
+        <v>2.236304521670669</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>8.166316129991335</v>
@@ -12773,7 +12773,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.158639066239806</v>
+        <v>2.235912552524085</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>12.39355471761038</v>
@@ -12862,7 +12862,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.155355493579838</v>
+        <v>2.235228580920223</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>6.188269451696505</v>
@@ -12951,7 +12951,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.154814580415001</v>
+        <v>2.234026641732486</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>10.48664410604878</v>
@@ -13040,7 +13040,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.153971741482682</v>
+        <v>2.233069734037783</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>7.009157080333584</v>
@@ -13129,7 +13129,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.153274287571829</v>
+        <v>2.233084429934503</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>9.189900502097332</v>
@@ -13218,7 +13218,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.149420506522242</v>
+        <v>2.23273256565839</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>7.886303982271499</v>
@@ -13307,7 +13307,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.144267667329272</v>
+        <v>2.230936970731558</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>8.944421607390154</v>
@@ -13396,7 +13396,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.13991790074708</v>
+        <v>2.229528557936566</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>6.16980530656086</v>
@@ -13485,7 +13485,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.136998402996303</v>
+        <v>2.227898032148341</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>10.08310487471132</v>
@@ -13574,7 +13574,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.135817850822338</v>
+        <v>2.226196669162581</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>7.419364395876793</v>
@@ -13663,7 +13663,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.133907785073648</v>
+        <v>2.223991874632882</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>7.547509000249493</v>
@@ -13752,7 +13752,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.134896425900374</v>
+        <v>2.224604530949949</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>12.01997345482233</v>
@@ -13841,7 +13841,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.132911294569682</v>
+        <v>2.222632070669231</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>6.595754782346002</v>
@@ -13930,7 +13930,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.131971714704619</v>
+        <v>2.222040358977047</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>7.378895453360339</v>
@@ -14019,7 +14019,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.129996463406338</v>
+        <v>2.220468235606165</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>7.32134724544513</v>
@@ -14108,7 +14108,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.130178292550699</v>
+        <v>2.220894793331603</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>6.039915409854139</v>
@@ -14197,7 +14197,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.126927661931753</v>
+        <v>2.218996144613494</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>11.35024773515876</v>
@@ -14286,7 +14286,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.124347049770959</v>
+        <v>2.218988994109441</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>6.22402435579075</v>
@@ -14375,7 +14375,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.121463020057209</v>
+        <v>2.217612235478577</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>8.36814202312268</v>
@@ -14464,7 +14464,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.119331771329146</v>
+        <v>2.21583669766815</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>8.606096840358788</v>
@@ -14553,7 +14553,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.120192643329174</v>
+        <v>2.215585080937047</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>6.698028679379025</v>
@@ -14642,7 +14642,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.120170800211566</v>
+        <v>2.214522802208747</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>9.131594204767186</v>
@@ -14731,7 +14731,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.120876726345747</v>
+        <v>2.214101236366087</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>9.057815806982122</v>
@@ -14820,7 +14820,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.119773932475057</v>
+        <v>2.213450067002688</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>7.323337374918727</v>
@@ -14909,7 +14909,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.117727691582294</v>
+        <v>2.212163263767879</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>6.62392347766857</v>
@@ -14998,7 +14998,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.117930362072582</v>
+        <v>2.21238028589533</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>9.120572135235163</v>
@@ -15087,7 +15087,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.11673718861341</v>
+        <v>2.210908808740722</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>5.659824666608449</v>
@@ -15176,7 +15176,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.118729170957469</v>
+        <v>2.211640009189648</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>6.562199845825226</v>
@@ -15265,7 +15265,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.116656727864854</v>
+        <v>2.210121019947906</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>8.184966552500923</v>
@@ -15354,7 +15354,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.114994466552016</v>
+        <v>2.209262760180476</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>6.452685360505967</v>
@@ -15443,7 +15443,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.114236872120042</v>
+        <v>2.207843674233172</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>10.24535229630168</v>
@@ -15532,7 +15532,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.111177581334044</v>
+        <v>2.205331710711908</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>8.777600580357385</v>
@@ -15621,7 +15621,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.109558650889844</v>
+        <v>2.203038266033149</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>6.062385849654326</v>
@@ -15710,7 +15710,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.107967868921903</v>
+        <v>2.200237384736858</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>7.890587570785526</v>
@@ -15799,7 +15799,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.104373046153821</v>
+        <v>2.196491737675415</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>8.602586879174723</v>
@@ -15888,7 +15888,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.099870107530952</v>
+        <v>2.191682506236655</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>5.988545095616802</v>
@@ -15977,7 +15977,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.096947517111268</v>
+        <v>2.188114057697383</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>5.022952731526122</v>
@@ -16066,7 +16066,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.093032995353798</v>
+        <v>2.183565115950125</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>7.24395998485187</v>
@@ -16155,7 +16155,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.087157192199126</v>
+        <v>2.177827121969894</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.922167646615858</v>
@@ -16441,7 +16441,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.102897609243546</v>
+        <v>2.190240523028519</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>8.376022373777253</v>
@@ -16530,7 +16530,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.102858782798442</v>
+        <v>2.189500344686505</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>5.603233161650052</v>
@@ -16619,7 +16619,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.100815398395688</v>
+        <v>2.189555213993209</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>5.884667916760529</v>
@@ -16708,7 +16708,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.091998638690107</v>
+        <v>2.185707583850421</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>7.476118040774927</v>
@@ -16797,7 +16797,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.089502620521087</v>
+        <v>2.184896372819932</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>6.674088381146422</v>
@@ -16886,7 +16886,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.08780431162641</v>
+        <v>2.183853773310362</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>9.122335498720348</v>
@@ -16975,7 +16975,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.09171841842864</v>
+        <v>2.185865469730507</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>5.735326693614704</v>
@@ -17064,7 +17064,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.085277586302356</v>
+        <v>2.181459331148315</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>9.010809996270426</v>
@@ -17153,7 +17153,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.074328091827888</v>
+        <v>2.173590785220275</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>5.494272214679879</v>
@@ -17242,7 +17242,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.068152660744285</v>
+        <v>2.168433164139029</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>6.509223692315899</v>
@@ -17331,7 +17331,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.063133674768896</v>
+        <v>2.164314172396604</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>6.02416366565919</v>
@@ -17420,7 +17420,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.07655330692924</v>
+        <v>2.17426868585805</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>5.704251094330039</v>
@@ -17509,7 +17509,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.089463618188259</v>
+        <v>2.18106867107893</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>7.844813074227492</v>
@@ -17598,7 +17598,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.096491435220984</v>
+        <v>2.185763189514425</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>6.001035126860057</v>
@@ -17687,7 +17687,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.097789283723333</v>
+        <v>2.186584695621472</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>7.920744820002237</v>
@@ -17776,7 +17776,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.101103385769301</v>
+        <v>2.187363322908824</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>6.299096807146391</v>
@@ -17865,7 +17865,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.102241668114781</v>
+        <v>2.187961458050228</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>9.909554778710037</v>
@@ -17954,7 +17954,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.108314268690333</v>
+        <v>2.190611151099049</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>8.795334530506139</v>
@@ -18043,7 +18043,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.116066729090015</v>
+        <v>2.195203772736223</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>7.354777459374695</v>
@@ -18132,7 +18132,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.115010570457347</v>
+        <v>2.193796122338032</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>8.773705608765564</v>
@@ -18221,7 +18221,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.113478844162852</v>
+        <v>2.19221271288738</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>6.163344095703609</v>
@@ -18310,7 +18310,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.11006139877396</v>
+        <v>2.188507522256894</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>6.084714742998418</v>
@@ -18399,7 +18399,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.118350496970784</v>
+        <v>2.192315572875966</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>9.298535953833202</v>
@@ -18488,7 +18488,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.128481304989367</v>
+        <v>2.198796471562399</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>5.875504135509266</v>
@@ -18577,7 +18577,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.134949627183869</v>
+        <v>2.203868458532993</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>7.459942887661744</v>
@@ -18666,7 +18666,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.13953134424123</v>
+        <v>2.206342379859865</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>9.180272415639489</v>
@@ -18755,7 +18755,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.134414540995765</v>
+        <v>2.204874224093341</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>6.389333345711795</v>
@@ -18844,7 +18844,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.132629488852873</v>
+        <v>2.205104095795351</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>7.370413253405801</v>
@@ -18933,7 +18933,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.131928745728247</v>
+        <v>2.204340511107926</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>7.972975000816963</v>
@@ -19022,7 +19022,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.139034205123363</v>
+        <v>2.205129241669783</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>7.991121134094832</v>
@@ -19111,7 +19111,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.135822065776871</v>
+        <v>2.206196281409216</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>7.492236340394016</v>
@@ -19200,7 +19200,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.139287344162827</v>
+        <v>2.207960502069346</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>10.34041876470304</v>
@@ -19289,7 +19289,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.140280275003273</v>
+        <v>2.208124117702155</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>6.260455471313665</v>
@@ -19378,7 +19378,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.141509694073415</v>
+        <v>2.20823981964966</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>6.903988913885382</v>
@@ -19467,7 +19467,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.146315856670141</v>
+        <v>2.209878990239468</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>8.08549913017707</v>
@@ -19556,7 +19556,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.146268331348297</v>
+        <v>2.209493472499278</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>5.455934832661574</v>
@@ -19645,7 +19645,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.149037879744117</v>
+        <v>2.209955609435427</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>7.880792707806932</v>
@@ -19734,7 +19734,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.148825798574928</v>
+        <v>2.208249682175017</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>8.851104807918601</v>
@@ -19823,7 +19823,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.148836568268091</v>
+        <v>2.207636398511043</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>6.58414417095688</v>
@@ -19912,7 +19912,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.150375389735543</v>
+        <v>2.206367459678431</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>7.719902112267161</v>
@@ -20001,7 +20001,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.153109087622172</v>
+        <v>2.206126070355813</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>8.240872278204918</v>
@@ -20090,7 +20090,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.157852079267995</v>
+        <v>2.207475928176803</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>7.537030280221865</v>
@@ -20376,7 +20376,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.039481759482145</v>
+        <v>2.138543634650959</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>6.440039120750517</v>
@@ -20465,7 +20465,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.042313212910019</v>
+        <v>2.141562666151669</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>5.726789049740288</v>
@@ -20554,7 +20554,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.041799718779983</v>
+        <v>2.140590361678905</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>5.188485364563363</v>
@@ -20643,7 +20643,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.033156854623965</v>
+        <v>2.132222214043634</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5.303528999804635</v>
@@ -20732,7 +20732,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.030826422514729</v>
+        <v>2.131146112145167</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>5.27818552649519</v>
@@ -20821,7 +20821,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.0302452027681</v>
+        <v>2.130578968411301</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>6.08007283204836</v>
@@ -20910,7 +20910,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.02544541850582</v>
+        <v>2.124261413371682</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>5.020652970509761</v>
@@ -20999,7 +20999,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.020991713489829</v>
+        <v>2.119593140192389</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>5.402148512365266</v>
@@ -21088,7 +21088,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.00686010003577</v>
+        <v>2.108194063745743</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>5.7756451347139</v>
@@ -21177,7 +21177,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.001511743702113</v>
+        <v>2.103637791677115</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.907778348376625</v>
@@ -21266,7 +21266,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.993500076291924</v>
+        <v>2.094501334378053</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.564381865799458</v>
@@ -21355,7 +21355,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.996029390351882</v>
+        <v>2.09663184641844</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>5.651355605633874</v>
@@ -21444,7 +21444,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.000910472589463</v>
+        <v>2.100576248424132</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>5.647775605765707</v>
@@ -21533,7 +21533,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.001786682722879</v>
+        <v>2.100527842323667</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>5.421608826403972</v>
@@ -21622,7 +21622,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.000479132502303</v>
+        <v>2.098784216499876</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>5.210135370827868</v>
@@ -21711,7 +21711,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.989975754759091</v>
+        <v>2.08980546130107</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.681697991139345</v>
@@ -21800,7 +21800,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.986366355437013</v>
+        <v>2.088922373350087</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.877297619571345</v>
@@ -21889,7 +21889,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.987332227125411</v>
+        <v>2.089203295477196</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.968549990493209</v>
@@ -21978,7 +21978,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.989086343109068</v>
+        <v>2.091282410358038</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.589894542564289</v>
@@ -22067,7 +22067,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.981294507777213</v>
+        <v>2.085997371555657</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>5.15161288853432</v>
@@ -22156,7 +22156,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.972521502967624</v>
+        <v>2.077701241057591</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.389197556462669</v>
@@ -22245,7 +22245,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.970646046214637</v>
+        <v>2.07605600900313</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.724566832162809</v>
@@ -22334,7 +22334,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.976610716299498</v>
+        <v>2.079637928238145</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.24864890063372</v>
@@ -22423,7 +22423,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.988385618106955</v>
+        <v>2.089568868540395</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>5.313437587596184</v>
@@ -22512,7 +22512,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.985441778263826</v>
+        <v>2.090192113165863</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>5.753152311820723</v>
@@ -22601,7 +22601,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.989768364001519</v>
+        <v>2.095638953212999</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>5.879937664045945</v>
@@ -22690,7 +22690,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.979434963138243</v>
+        <v>2.0858820907364</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.748429672855825</v>
@@ -22779,7 +22779,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.975162141228508</v>
+        <v>2.082391654946148</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>5.273409623801504</v>
@@ -22868,7 +22868,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.975312389311519</v>
+        <v>2.084152424991018</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>5.355988442631909</v>
@@ -22957,7 +22957,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.980184044711139</v>
+        <v>2.086974219138781</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.22437420451781</v>
@@ -23046,7 +23046,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.981191701744114</v>
+        <v>2.092727094714544</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>5.157858392321433</v>
@@ -23135,7 +23135,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.964354300797643</v>
+        <v>2.079802816066973</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.669475895237965</v>
@@ -23224,7 +23224,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.956315957252522</v>
+        <v>2.078208121125108</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.599555354394102</v>
@@ -23313,7 +23313,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.95021938756923</v>
+        <v>2.078645092242797</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>5.085710769207778</v>
@@ -23402,7 +23402,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.946755576472582</v>
+        <v>2.080108448383831</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.512154513873806</v>
@@ -23491,7 +23491,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.94653219076327</v>
+        <v>2.085477734746946</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>5.104366957559572</v>
@@ -23580,7 +23580,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.938289829447037</v>
+        <v>2.080383226992935</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.558020191363047</v>
@@ -23669,7 +23669,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.932176403309289</v>
+        <v>2.081529051970824</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.524660130540573</v>
@@ -23758,7 +23758,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.926575364322821</v>
+        <v>2.079122498576584</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.325181167707171</v>
@@ -23847,7 +23847,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.924890279939216</v>
+        <v>2.080989941500341</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.092787936201673</v>
@@ -23936,7 +23936,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.921522812164413</v>
+        <v>2.084020121406841</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.320555451513195</v>
@@ -24025,7 +24025,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.916294337438722</v>
+        <v>2.080360608757034</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.654789089739387</v>
@@ -24311,7 +24311,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.069118483534315</v>
+        <v>2.160618044780326</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>6.390157005908399</v>
@@ -24400,7 +24400,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.065195442812438</v>
+        <v>2.156933031951652</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>5.563314030102424</v>
@@ -24489,7 +24489,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.06399835900721</v>
+        <v>2.156448586909238</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>5.85935159742826</v>
@@ -24578,7 +24578,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.061589873166584</v>
+        <v>2.15507644368106</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5.753211717030228</v>
@@ -24667,7 +24667,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.052582250043697</v>
+        <v>2.150394342724102</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.641069229048139</v>
@@ -24756,7 +24756,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.052198588009222</v>
+        <v>2.148632707153768</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>6.511586952467417</v>
@@ -24845,7 +24845,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.056755375977709</v>
+        <v>2.151247083816699</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>5.720710273436653</v>
@@ -24934,7 +24934,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.045837222014495</v>
+        <v>2.141263984511948</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>5.940320271305313</v>
@@ -25023,7 +25023,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.035356659769028</v>
+        <v>2.133158399833294</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.359081897997983</v>
@@ -25112,7 +25112,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.022083511357199</v>
+        <v>2.121680151602511</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>6.387747218817059</v>
@@ -25201,7 +25201,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.010891256085258</v>
+        <v>2.113003744169895</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>5.321624117377906</v>
@@ -25290,7 +25290,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.022667206893504</v>
+        <v>2.122724941723039</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>5.314337180077205</v>
@@ -25379,7 +25379,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.031108536655735</v>
+        <v>2.128626158183038</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.780696255932375</v>
@@ -25468,7 +25468,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.039504214839142</v>
+        <v>2.135358805909152</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.681440460999805</v>
@@ -25557,7 +25557,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.046826830104217</v>
+        <v>2.142060507232474</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>6.440213193045381</v>
@@ -25646,7 +25646,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.042987246070845</v>
+        <v>2.137615151559406</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>5.248627430484712</v>
@@ -25735,7 +25735,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.046172962695571</v>
+        <v>2.139681934607268</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>6.004516721732805</v>
@@ -25824,7 +25824,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.050615731995746</v>
+        <v>2.142726253218136</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>5.661016794894877</v>
@@ -25913,7 +25913,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.059880648785462</v>
+        <v>2.149266234804825</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.93480699980651</v>
@@ -26002,7 +26002,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.058207509580367</v>
+        <v>2.147182482969571</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>6.532271486453197</v>
@@ -26091,7 +26091,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.049884918011302</v>
+        <v>2.139769564748317</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.938102266258192</v>
@@ -26180,7 +26180,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.042329566165322</v>
+        <v>2.131540213259568</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>5.379728005890154</v>
@@ -26269,7 +26269,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.054398037260796</v>
+        <v>2.138729429510272</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>6.149639145645665</v>
@@ -26358,7 +26358,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.05506908069923</v>
+        <v>2.139364487084525</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.482327814982351</v>
@@ -26447,7 +26447,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.0692007227592</v>
+        <v>2.150544571604495</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>6.250643645597663</v>
@@ -26536,7 +26536,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.075583732172341</v>
+        <v>2.154107896333227</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>6.670308903746402</v>
@@ -26625,7 +26625,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.080030345982702</v>
+        <v>2.15755568937257</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>5.060949684523666</v>
@@ -26714,7 +26714,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.070284457367368</v>
+        <v>2.148896992531547</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>5.982677173282007</v>
@@ -26803,7 +26803,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.073228271709132</v>
+        <v>2.151180136217039</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.946292680616169</v>
@@ -26892,7 +26892,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.080347099942126</v>
+        <v>2.153908996955227</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.921816411759148</v>
@@ -26981,7 +26981,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.082301517376905</v>
+        <v>2.157878923275166</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>6.242326204336044</v>
@@ -27070,7 +27070,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.0842381838604</v>
+        <v>2.159482021650815</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>5.735224268897697</v>
@@ -27159,7 +27159,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.08688316415942</v>
+        <v>2.162312555585693</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>5.204359304994035</v>
@@ -27248,7 +27248,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.086776308670858</v>
+        <v>2.161839592303731</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>6.282471275207383</v>
@@ -27337,7 +27337,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.087919030864391</v>
+        <v>2.162837017215485</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>5.315806297588964</v>
@@ -27426,7 +27426,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.092621965647684</v>
+        <v>2.16736186516545</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.952214031955918</v>
@@ -27515,7 +27515,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.101519912022661</v>
+        <v>2.17326144832706</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>6.796058249507505</v>
@@ -27604,7 +27604,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.095603500106609</v>
+        <v>2.169901232761459</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>5.011115594251812</v>
@@ -27693,7 +27693,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.099274440622172</v>
+        <v>2.171860439089039</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>6.119854774280734</v>
@@ -27782,7 +27782,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.099348038437296</v>
+        <v>2.170257267232399</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>6.123058055084413</v>
@@ -27871,7 +27871,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.100557640887238</v>
+        <v>2.170424139543729</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>5.777626149823804</v>
@@ -27960,7 +27960,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.10309698320321</v>
+        <v>2.171953474916898</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>5.52165725492033</v>
